--- a/课题一览.xlsx
+++ b/课题一览.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\SHINPU-Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="课题一览" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>幻想的ファンタジールーレットガチャシステム</t>
   </si>
@@ -30,18 +35,20 @@
   <si>
     <t>解决方法</t>
   </si>
+  <si>
+    <t>语言使用php</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习php（注：本条修改用于测试git）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,151 +73,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,198 +88,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -418,251 +101,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -683,58 +124,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -995,17 +397,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="5:12">
+    <row r="1" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -1013,11 +414,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="5:21">
+    <row r="3" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="2"/>
@@ -1025,7 +426,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="2"/>
@@ -1038,17 +439,21 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="5:21">
+    <row r="4" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1059,7 +464,7 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="5:21">
+    <row r="5" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1078,7 +483,7 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="5:21">
+    <row r="6" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1097,7 +502,7 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="5:21">
+    <row r="7" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E7" s="3">
         <v>2</v>
       </c>
@@ -1118,7 +523,7 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="5:21">
+    <row r="8" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1137,7 +542,7 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="5:21">
+    <row r="9" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1156,7 +561,7 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="5:21">
+    <row r="10" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E10" s="3">
         <v>3</v>
       </c>
@@ -1177,7 +582,7 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="5:21">
+    <row r="11" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1196,7 +601,7 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="5:21">
+    <row r="12" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1215,7 +620,7 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="5:21">
+    <row r="13" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E13" s="3">
         <v>4</v>
       </c>
@@ -1236,7 +641,7 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="5:21">
+    <row r="14" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1255,7 +660,7 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="5:21">
+    <row r="15" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1274,7 +679,7 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="5:21">
+    <row r="16" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E16" s="3">
         <v>5</v>
       </c>
@@ -1295,7 +700,7 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="5:21">
+    <row r="17" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1314,7 +719,7 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="5:21">
+    <row r="18" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1333,7 +738,7 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="5:21">
+    <row r="19" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E19" s="3">
         <v>6</v>
       </c>
@@ -1354,7 +759,7 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="5:21">
+    <row r="20" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1373,7 +778,7 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="5:21">
+    <row r="21" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1392,7 +797,7 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="5:21">
+    <row r="22" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E22" s="3">
         <v>7</v>
       </c>
@@ -1413,7 +818,7 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="5:21">
+    <row r="23" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1432,7 +837,7 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="5:21">
+    <row r="24" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1451,7 +856,7 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="5:21">
+    <row r="25" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E25" s="3">
         <v>8</v>
       </c>
@@ -1472,7 +877,7 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="5:21">
+    <row r="26" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1491,7 +896,7 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="5:21">
+    <row r="27" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1510,7 +915,7 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="5:21">
+    <row r="28" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E28" s="3">
         <v>9</v>
       </c>
@@ -1531,7 +936,7 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="5:21">
+    <row r="29" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1550,7 +955,7 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="5:21">
+    <row r="30" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1569,7 +974,7 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="5:21">
+    <row r="31" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E31" s="3">
         <v>10</v>
       </c>
@@ -1590,7 +995,7 @@
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="5:21">
+    <row r="32" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1609,7 +1014,7 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="5:21">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1628,7 +1033,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="5:21">
+    <row r="34" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E34" s="3">
         <v>11</v>
       </c>
@@ -1649,7 +1054,7 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="5:21">
+    <row r="35" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1668,7 +1073,7 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="5:21">
+    <row r="36" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1687,7 +1092,7 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="5:21">
+    <row r="37" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E37" s="3">
         <v>12</v>
       </c>
@@ -1708,7 +1113,7 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="5:21">
+    <row r="38" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E38" s="3"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -1727,7 +1132,7 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="5:21">
+    <row r="39" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1746,7 +1151,7 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="5:21">
+    <row r="40" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E40" s="3">
         <v>13</v>
       </c>
@@ -1767,7 +1172,7 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="5:21">
+    <row r="41" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E41" s="3"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -1786,7 +1191,7 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="5:21">
+    <row r="42" spans="5:21" x14ac:dyDescent="0.15">
       <c r="E42" s="3"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -1807,31 +1212,14 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:U3"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F4:K6"/>
-    <mergeCell ref="L4:U6"/>
-    <mergeCell ref="F7:K9"/>
-    <mergeCell ref="L7:U9"/>
-    <mergeCell ref="F10:K12"/>
-    <mergeCell ref="F13:K15"/>
-    <mergeCell ref="F16:K18"/>
-    <mergeCell ref="F19:K21"/>
-    <mergeCell ref="F22:K24"/>
-    <mergeCell ref="F25:K27"/>
+    <mergeCell ref="F31:K33"/>
+    <mergeCell ref="F34:K36"/>
+    <mergeCell ref="F37:K39"/>
+    <mergeCell ref="F40:K42"/>
+    <mergeCell ref="L31:U33"/>
+    <mergeCell ref="L34:U36"/>
+    <mergeCell ref="L37:U39"/>
+    <mergeCell ref="L40:U42"/>
     <mergeCell ref="F28:K30"/>
     <mergeCell ref="L10:U12"/>
     <mergeCell ref="L13:U15"/>
@@ -1840,16 +1228,33 @@
     <mergeCell ref="L22:U24"/>
     <mergeCell ref="L25:U27"/>
     <mergeCell ref="L28:U30"/>
-    <mergeCell ref="F31:K33"/>
-    <mergeCell ref="F34:K36"/>
-    <mergeCell ref="F37:K39"/>
-    <mergeCell ref="F40:K42"/>
-    <mergeCell ref="L31:U33"/>
-    <mergeCell ref="L34:U36"/>
-    <mergeCell ref="L37:U39"/>
-    <mergeCell ref="L40:U42"/>
+    <mergeCell ref="F13:K15"/>
+    <mergeCell ref="F16:K18"/>
+    <mergeCell ref="F19:K21"/>
+    <mergeCell ref="F22:K24"/>
+    <mergeCell ref="F25:K27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:U3"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F4:K6"/>
+    <mergeCell ref="L4:U6"/>
+    <mergeCell ref="F7:K9"/>
+    <mergeCell ref="L7:U9"/>
+    <mergeCell ref="F10:K12"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>